--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2460"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -74,13 +74,31 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ConPass</t>
+  </si>
+  <si>
+    <t>Johnalec</t>
+  </si>
+  <si>
+    <t>abcd12@q</t>
+  </si>
+  <si>
+    <t>jjkl1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +114,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,11 +153,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -150,8 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -533,18 +576,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,8 +598,17 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,8 +618,41 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
